--- a/DATA_goal/Junction_Flooding_66.xlsx
+++ b/DATA_goal/Junction_Flooding_66.xlsx
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -467,8 +467,8 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -655,103 +655,103 @@
         <v>41498.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.08</v>
+        <v>2.01</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.56</v>
+        <v>4.26</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.5</v>
+        <v>3.45</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.8</v>
+        <v>1.58</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>50.7</v>
+        <v>5.07</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.32</v>
+        <v>2.43</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.51</v>
+        <v>1.55</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.79</v>
+        <v>1.68</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.51</v>
+        <v>1.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.98</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.35</v>
+        <v>1.34</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>231.85</v>
+        <v>23.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.71</v>
+        <v>4.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.93</v>
+        <v>2.89</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.59</v>
+        <v>1.36</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.25</v>
+        <v>1.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>44.95</v>
+        <v>4.49</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41498.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.88</v>
+        <v>3.69</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.04</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>52.22</v>
+        <v>5.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.71</v>
+        <v>2.07</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.44</v>
+        <v>1.54</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.89</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>196.41</v>
+        <v>19.64</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.46</v>
+        <v>3.75</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.93</v>
+        <v>2.49</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.05</v>
+        <v>1.3</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.21</v>
+        <v>2.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.85</v>
+        <v>0.98</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.3</v>
+        <v>1.53</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>47.47</v>
+        <v>4.75</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41498.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28</v>
+        <v>2.8</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="P4" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="Q4" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>88.83</v>
-      </c>
       <c r="U4" s="4" t="n">
-        <v>17.81</v>
+        <v>1.78</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.57</v>
+        <v>2.56</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41498.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>1.11</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>36.06</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>48.81</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>15.22</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>190.67</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>36.32</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>24.34</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>23.81</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>11.1</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.1</v>
+        <v>4.41</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41498.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>26.26</v>
+        <v>2.63</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>21.45</v>
+        <v>2.15</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>38.48</v>
+        <v>3.85</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>136.89</v>
+        <v>13.69</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>26.55</v>
+        <v>2.66</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>8.75</v>
+        <v>0.87</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>17.77</v>
+        <v>1.78</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>35</v>
+        <v>3.5</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41498.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V7" s="4" t="n">
         <v>0.67</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>29.97</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="R7" s="4" t="n">
+      <c r="W7" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AB7" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>103.69</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>5.32</v>
-      </c>
       <c r="AC7" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>27.24</v>
+        <v>2.72</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41498.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>50.13</v>
+        <v>5.01</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>41.24</v>
+        <v>4.12</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>18.15</v>
+        <v>1.81</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>67.63</v>
+        <v>6.76</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>27.92</v>
+        <v>2.79</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.45</v>
+        <v>1.25</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.51</v>
+        <v>1.85</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>21.24</v>
+        <v>2.12</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>25.73</v>
+        <v>2.57</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>267.36</v>
+        <v>26.74</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>50.41</v>
+        <v>5.04</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>34</v>
+        <v>3.4</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>33.34</v>
+        <v>3.33</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>15.28</v>
+        <v>1.53</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>21.12</v>
+        <v>2.11</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>61.31</v>
+        <v>6.13</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41498.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P9" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>3.73</v>
-      </c>
       <c r="Q9" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB9" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AC9" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>2.96</v>
+        <v>0.3</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>16.37</v>
+        <v>1.64</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>2.96</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41498.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>22.55</v>
+        <v>2.25</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>18.47</v>
+        <v>1.85</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>29.98</v>
+        <v>3</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>116.25</v>
+        <v>11.62</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>22.59</v>
+        <v>2.26</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>15.16</v>
+        <v>1.52</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_66.xlsx
+++ b/DATA_goal/Junction_Flooding_66.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,35 +444,35 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41498.34027777778</v>
+        <v>40751.42361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.49</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.26</v>
+        <v>0.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.45</v>
+        <v>1.03</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.58</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.07</v>
+        <v>0.86</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.43</v>
+        <v>0.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.68</v>
+        <v>0.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.75</v>
+        <v>0.52</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>4.49</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.81</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41498.34722222222</v>
+        <v>40751.43055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.71</v>
+        <v>0.32</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.21</v>
+        <v>0.31</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.35</v>
-      </c>
       <c r="H3" s="4" t="n">
-        <v>5.22</v>
+        <v>0.87</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.07</v>
+        <v>0.29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.3</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.48</v>
+        <v>0.3</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.54</v>
+        <v>0.31</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.23</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.89</v>
+        <v>0.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.64</v>
+        <v>2.66</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.75</v>
+        <v>0.58</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.26</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.49</v>
+        <v>0.47</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.3</v>
+        <v>0.21</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH3" s="4" t="n">
         <v>0.23</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>1.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41498.35416666666</v>
+        <v>40751.4375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.26</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.8</v>
+        <v>1.71</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.72</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.55</v>
-      </c>
       <c r="AD4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.56</v>
+        <v>1.46</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41498.36111111111</v>
+        <v>40751.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.66</v>
+        <v>2.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.61</v>
+        <v>4.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.95</v>
+        <v>3.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.88</v>
+        <v>5.76</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.01</v>
+        <v>2.41</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.89</v>
+        <v>1.09</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.32</v>
+        <v>1.67</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.85</v>
+        <v>2.23</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.07</v>
+        <v>23.28</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.63</v>
+        <v>4.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.43</v>
+        <v>3.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.38</v>
+        <v>2.83</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.95</v>
+        <v>1.14</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.89</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.41</v>
+        <v>5.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41498.36805555555</v>
+        <v>40751.45137731481</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.21</v>
+        <v>11.66</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.88</v>
+        <v>9.01</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.63</v>
+        <v>24.52</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.15</v>
+        <v>21.2</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.95</v>
+        <v>8.84</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.85</v>
+        <v>38</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.47</v>
+        <v>13.73</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.65</v>
+        <v>6.26</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.95</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.06</v>
+        <v>10.25</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.11</v>
+        <v>10.8</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.3</v>
+        <v>2.88</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.95</v>
+        <v>9.02</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.34</v>
+        <v>12.69</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>7.18</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.35</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>13.69</v>
+        <v>129.89</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.66</v>
+        <v>25.09</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.87</v>
+        <v>8.49</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.78</v>
+        <v>17.35</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.93</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.15</v>
+        <v>1.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.84</v>
+        <v>17.81</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.77</v>
+        <v>7.1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.54</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.1</v>
+        <v>10.87</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.5</v>
+        <v>34.23</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41498.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41498.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>26.74</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41498.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41498.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41498.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>17.87</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>38.86</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>31.97</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>52.57</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>21.64</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>205.55</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>39.07</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>26.36</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>16.14</v>
+        <v>10.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_66.xlsx
+++ b/DATA_goal/Junction_Flooding_66.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>40751.42361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>4.31</v>
+        <v>43.1</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.43055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.05</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.75</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.75</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="M3" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>2.66</v>
+        <v>26.62</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.4375</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.63</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.32</v>
+        <v>43.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.69</v>
+        <v>36.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.76</v>
+        <v>57.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.41</v>
+        <v>24.14</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.83</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.23</v>
+        <v>22.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>23.28</v>
+        <v>232.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.38</v>
+        <v>43.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.01</v>
+        <v>30.09</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.83</v>
+        <v>28.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.56</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.39</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.88</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.16</v>
+        <v>51.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_66.xlsx
+++ b/DATA_goal/Junction_Flooding_66.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,36 +445,36 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,100 +655,100 @@
         <v>40751.42361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.48</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.59</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.04</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.1</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.95</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>3.31</v>
@@ -759,103 +759,103 @@
         <v>40751.43055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.21</v>
+        <v>3.208</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.05</v>
+        <v>3.054</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.75</v>
+        <v>4.746</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.38</v>
+        <v>6.375</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.76</v>
+        <v>1.758</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.75</v>
+        <v>8.746</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.89</v>
+        <v>2.888</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.433</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.95</v>
+        <v>2.951</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3</v>
+        <v>2.998</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>3.11</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.619</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.3</v>
+        <v>2.297</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.155</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.62</v>
+        <v>26.616</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.79</v>
+        <v>5.794</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>2.58</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.74</v>
+        <v>4.745</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>2.08</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.55</v>
+        <v>3.549</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.22</v>
+        <v>1.219</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.871</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2</v>
+        <v>1.999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.41</v>
+        <v>3.407</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.9</v>
+        <v>6.899</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.412</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.29</v>
+        <v>2.291</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.4375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.46</v>
+        <v>6.464</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.27</v>
+        <v>5.269</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.62</v>
+        <v>12.619</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.02</v>
+        <v>12.018</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.55</v>
+        <v>4.551</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.12</v>
+        <v>17.121</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.16</v>
+        <v>7.163</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.3</v>
+        <v>3.304</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.49</v>
+        <v>5.495</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.76</v>
+        <v>5.756</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.04</v>
+        <v>6.039</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.51</v>
+        <v>1.508</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.9</v>
+        <v>4.905</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.57</v>
+        <v>6.569</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.56</v>
+        <v>3.563</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>66.78</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.17</v>
+        <v>13.165</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.81</v>
+        <v>4.812</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>9.457000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.76</v>
+        <v>4.762</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.92</v>
+        <v>7.918</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.57</v>
+        <v>3.566</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.66</v>
+        <v>3.656</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.22</v>
+        <v>4.224</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.22</v>
+        <v>6.223</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.63</v>
+        <v>14.628</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.74</v>
+        <v>2.744</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.43</v>
+        <v>5.427</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>18.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.45137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.52</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>129.89</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.09</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.23</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_66.xlsx
+++ b/DATA_goal/Junction_Flooding_66.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,88 +967,88 @@
         <v>40751.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.34</v>
+        <v>20.343</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.59</v>
+        <v>15.592</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.576</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>43.19</v>
+        <v>43.186</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.88</v>
+        <v>36.876</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.6</v>
+        <v>15.595</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.56</v>
+        <v>57.559</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.14</v>
+        <v>24.137</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.93</v>
+        <v>10.933</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.71</v>
+        <v>16.715</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>17.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.83</v>
+        <v>18.828</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.03</v>
+        <v>5.035</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.8</v>
+        <v>15.795</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.28</v>
+        <v>22.281</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.71</v>
+        <v>12.713</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.734</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>232.84</v>
+        <v>232.838</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>43.77</v>
+        <v>43.769</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.79</v>
+        <v>14.787</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.09</v>
+        <v>30.094</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.65</v>
+        <v>15.655</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.07</v>
+        <v>2.074</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.3</v>
+        <v>28.304</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.56</v>
+        <v>12.557</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.41</v>
+        <v>11.407</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.39</v>
+        <v>13.392</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>18.88</v>
@@ -1057,13 +1057,117 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.63</v>
+        <v>51.629</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>8.449</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.06</v>
+        <v>18.061</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.45137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>129.89</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>10.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_66.xlsx
+++ b/DATA_goal/Junction_Flooding_66.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,88 +967,88 @@
         <v>40751.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.343</v>
+        <v>20.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.592</v>
+        <v>15.59</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.576</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>43.186</v>
+        <v>43.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.876</v>
+        <v>36.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.595</v>
+        <v>15.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.559</v>
+        <v>57.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.137</v>
+        <v>24.14</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.933</v>
+        <v>10.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.715</v>
+        <v>16.71</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>17.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.828</v>
+        <v>18.83</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.035</v>
+        <v>5.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.795</v>
+        <v>15.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.281</v>
+        <v>22.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.713</v>
+        <v>12.71</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.734</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>232.838</v>
+        <v>232.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>43.769</v>
+        <v>43.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.787</v>
+        <v>14.79</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.094</v>
+        <v>30.09</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.655</v>
+        <v>15.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.074</v>
+        <v>2.07</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.304</v>
+        <v>28.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.557</v>
+        <v>12.56</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.407</v>
+        <v>11.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.392</v>
+        <v>13.39</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>18.88</v>
@@ -1057,117 +1057,13 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.629</v>
+        <v>51.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.449</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.061</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.45137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.52</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>129.89</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.09</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.23</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.28</v>
+        <v>18.06</v>
       </c>
     </row>
   </sheetData>
